--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1560967.648738548</v>
+        <v>-1563522.831467079</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.52405900590627</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>270.380862279625</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>97.9849709962363</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>62.06770645812391</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>21.04719152462425</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>103.7120910922027</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>233.5218414313647</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.1379555962002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>200.4331707528099</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,10 +1348,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>168.4579403081947</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>107.3178054178675</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>183.8417748468593</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>114.512007517665</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>73.57849775387133</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>92.41552299048858</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>49.33106662725105</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>32.27552175740353</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002294</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796265</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728761</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E2" t="n">
-        <v>563.5047572728761</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,49 +4410,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>181.169050396912</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>181.169050396912</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>181.169050396912</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>181.169050396912</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>181.169050396912</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9427113039706</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968309</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1238.038871968309</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>879.773173361559</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>879.773173361559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>468.7872685719514</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032431</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4635,19 +4635,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.9956795433841</v>
+        <v>268.5974815857599</v>
       </c>
       <c r="C7" t="n">
-        <v>509.7358901245717</v>
+        <v>268.5974815857599</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>268.5974815857599</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>268.5974815857599</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>899.0280764575471</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.426274415171</v>
+        <v>899.0280764575471</v>
       </c>
       <c r="X7" t="n">
-        <v>933.436723517154</v>
+        <v>671.0385255595297</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.6441443736238</v>
+        <v>450.2459464159996</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3012.857404901105</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263131</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.572515263131</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.4834000772721</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783663</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783663</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1246.26553011882</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1018.275979220802</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>797.4834000772721</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,31 +5057,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>633.4413279836774</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>464.5051450557705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>815.0897928139171</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,22 +5358,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093768</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093768</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,13 +5835,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,13 +6072,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>733.4550657171301</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>583.3384263047943</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>755.7618030552777</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>605.645163642942</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>457.7320700605488</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>310.8421225626385</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>143.6460232775184</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6926,58 +6926,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311322</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>562.8579153358621</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2223.769289033212</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>367.3519867358052</v>
+        <v>280.1262230804342</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>31.24465028923949</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22942,7 +22942,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>118.8026125197109</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22951,10 +22951,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>41.70895693072859</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>19.5075801958271</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>118.3918499711697</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>41.86788054217789</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>212.9445005827197</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>54.01843965608059</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>90.96364621897283</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>114.1584408891656</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119348.9846398223</v>
+        <v>119348.9846398222</v>
       </c>
       <c r="C2" t="n">
-        <v>142809.8237124527</v>
+        <v>142809.8237124526</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262496</v>
@@ -26323,13 +26323,13 @@
         <v>141250.6549457511</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="G2" t="n">
         <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
         <v>141250.6549457511</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551172</v>
@@ -26418,16 +26418,16 @@
         <v>12820.12292715301</v>
       </c>
       <c r="C4" t="n">
-        <v>89338.26297207286</v>
+        <v>89338.26297207295</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26445,19 +26445,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
+        <v>20987.72340992389</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="P4" t="n">
         <v>20987.7234099239</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20987.72340992395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20987.7234099239</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20987.72340992392</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20987.72340992391</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1330149.824576317</v>
+        <v>-1330497.443506123</v>
       </c>
       <c r="C6" t="n">
-        <v>-54462.3798210135</v>
+        <v>-54474.84390692497</v>
       </c>
       <c r="D6" t="n">
-        <v>-56435.52975332536</v>
+        <v>-56435.52975332542</v>
       </c>
       <c r="E6" t="n">
-        <v>-298281.2008323416</v>
+        <v>-298315.9387577772</v>
       </c>
       <c r="F6" t="n">
-        <v>27131.26097501355</v>
+        <v>27096.52304957778</v>
       </c>
       <c r="G6" t="n">
-        <v>27131.2609750135</v>
+        <v>27096.52304957779</v>
       </c>
       <c r="H6" t="n">
-        <v>27131.26097501362</v>
+        <v>27096.52304957781</v>
       </c>
       <c r="I6" t="n">
-        <v>27131.26097501355</v>
+        <v>27096.52304957782</v>
       </c>
       <c r="J6" t="n">
-        <v>-190399.941422264</v>
+        <v>-190434.6793476997</v>
       </c>
       <c r="K6" t="n">
-        <v>27131.26097501355</v>
+        <v>27096.52304957785</v>
       </c>
       <c r="L6" t="n">
         <v>102.7524687785481</v>
       </c>
       <c r="M6" t="n">
-        <v>-65524.55747310145</v>
+        <v>-65524.55747310143</v>
       </c>
       <c r="N6" t="n">
+        <v>19530.4704624103</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19530.47046241032</v>
+      </c>
+      <c r="P6" t="n">
         <v>19530.47046241033</v>
-      </c>
-      <c r="O6" t="n">
-        <v>19530.4704624103</v>
-      </c>
-      <c r="P6" t="n">
-        <v>19530.4704624103</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>284.7488706672443</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>348.8540191953296</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.3970170542927</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>18.61580189246331</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.5958860672804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>50.56200120609211</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>70.66335656800746</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>118.0650580283963</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28330,10 +28330,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>187.2159464875248</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,25 +32078,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32792,16 +32792,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,19 +33260,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>549.9198891312103</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33971,16 +33971,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>162.5000833330458</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>458.677017313216</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>55.87423440419153</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,19 +36908,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>407.3236446867659</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,16 +37619,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>23.94570355317166</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>320.835578338857</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
